--- a/Backend/claim/claimdump.xlsx
+++ b/Backend/claim/claimdump.xlsx
@@ -631,52 +631,52 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>United India Insurance Co. Ltd.</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>UIIC DELHI RO 2</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>220000</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>221800</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>221800</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>14122771</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>38329818</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>ins_2218002824C050242001</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>3,832,981,738,578,460</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>uh81130398</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>pol_2218002824P101861267</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>Team Computers Pvt Ltd</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v>Group Policy</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>Group Policy Tailor Made</v>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <v>4/8/24</v>
+        <v/>
       </c>
       <c r="P2" t="str">
-        <v>4/7/25</v>
+        <v/>
       </c>
       <c r="Q2" t="str">
         <v/>
@@ -685,43 +685,43 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <v xml:space="preserve">Corporate Risks India Insurance Brokers Pvt Ltd (Earlier known as Corporate Risks India Pvt. Ltd) </v>
+        <v/>
       </c>
       <c r="T2" t="str">
-        <v>16899</v>
+        <v/>
       </c>
       <c r="U2" t="str">
-        <v>Ketaki Dipesh Kandalkar</v>
+        <v/>
       </c>
       <c r="V2" t="str">
         <v/>
       </c>
       <c r="W2" t="str">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="X2" t="str">
-        <v>5127747832</v>
+        <v/>
       </c>
       <c r="Y2" t="str">
-        <v>UIIC23142991217168992</v>
+        <v/>
       </c>
       <c r="Z2" t="str">
-        <v>Dipesh Sadanad Kandalkar</v>
+        <v/>
       </c>
       <c r="AA2" t="str">
-        <v>Male</v>
+        <v/>
       </c>
       <c r="AB2" t="str">
-        <v>Spouse</v>
+        <v/>
       </c>
       <c r="AC2" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="AD2" t="str">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="AE2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AF2" t="str">
         <v/>
@@ -730,91 +730,91 @@
         <v/>
       </c>
       <c r="AH2" t="str">
-        <v>IHX</v>
+        <v/>
       </c>
       <c r="AI2" t="str">
         <v/>
       </c>
       <c r="AJ2" t="str">
-        <v>Cashless</v>
+        <v/>
       </c>
       <c r="AK2" t="str">
-        <v>Cashless</v>
+        <v/>
       </c>
       <c r="AL2" t="str">
-        <v>Processed</v>
+        <v/>
       </c>
       <c r="AM2" t="str">
-        <v>Processed - Debit Note Raised</v>
+        <v/>
       </c>
       <c r="AN2" t="str">
-        <v>6/28/24</v>
+        <v/>
       </c>
       <c r="AO2" t="str">
-        <v>7/1/24</v>
+        <v/>
       </c>
       <c r="AP2" t="str">
-        <v>201800</v>
+        <v/>
       </c>
       <c r="AQ2" t="str">
-        <v>180590</v>
+        <v/>
       </c>
       <c r="AR2" t="str">
-        <v>180590</v>
+        <v/>
       </c>
       <c r="AS2" t="str">
-        <v>INJURIES / FRACTURES / DISLOCATIONS</v>
+        <v/>
       </c>
       <c r="AT2" t="str">
-        <v>Superior glenoid labrum lesion of right shoulder, initial encounter</v>
+        <v/>
       </c>
       <c r="AU2" t="str">
-        <v>S43.431A</v>
+        <v/>
       </c>
       <c r="AV2" t="str">
-        <v>Surgical</v>
+        <v/>
       </c>
       <c r="AW2" t="str">
-        <v>Other procedures on specific site</v>
+        <v/>
       </c>
       <c r="AX2" t="str">
-        <v>198707</v>
+        <v/>
       </c>
       <c r="AY2" t="str">
-        <v>Shubham Life Line Multispeciality Hospital</v>
+        <v/>
       </c>
       <c r="AZ2" t="str">
-        <v>Vasai</v>
+        <v/>
       </c>
       <c r="BA2" t="str">
-        <v>9505</v>
+        <v/>
       </c>
       <c r="BB2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BC2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BD2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BE2" t="str">
-        <v>9505</v>
+        <v/>
       </c>
       <c r="BF2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BH2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BI2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="BJ2" t="str">
-        <v>SHUBHAM LIFELINE MULTISPECIALITY HOSPITAL</v>
+        <v/>
       </c>
       <c r="BK2" t="str">
         <v/>
@@ -826,13 +826,13 @@
         <v/>
       </c>
       <c r="BN2" t="str">
-        <v>7/5/24</v>
+        <v/>
       </c>
       <c r="BO2" t="str">
-        <v>7/5/24</v>
+        <v/>
       </c>
       <c r="BP2" t="str">
-        <v>7/6/24</v>
+        <v/>
       </c>
       <c r="BQ2" t="str">
         <v/>
@@ -847,7 +847,7 @@
         <v/>
       </c>
       <c r="BU2" t="str">
-        <v>laboratory charges:-2200.00</v>
+        <v/>
       </c>
       <c r="BV2" t="str">
         <v/>
